--- a/Documentation/Test.xlsx
+++ b/Documentation/Test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5EB5D-077B-4191-992E-A163CBC64E56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="3270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
   <si>
     <t>Résultat</t>
   </si>
@@ -65,9 +66,6 @@
     <t>Lorsque je coche la case, lors de la prochaine connexion l'identifiant est déjà rempli</t>
   </si>
   <si>
-    <t>Enregistrement</t>
-  </si>
-  <si>
     <t>Confirmation du mot de passe</t>
   </si>
   <si>
@@ -329,13 +327,109 @@
     <t>Retirer</t>
   </si>
   <si>
-    <t xml:space="preserve">Lorsque je clique sur le bouton : </t>
+    <t>Lorsque je clique sur le bouton : -Si un participant a la discusison est sélectionné, le participant est retiré de la liste des" participants à la discusison"</t>
+  </si>
+  <si>
+    <t>Lorsque j'écris dans le champ, ce que j'écris y est affiché. La catégorie est "Par defaut" par défaut</t>
+  </si>
+  <si>
+    <t>Si la case est cochée, la discussion sera publique (accessible librement pour tous le monde)</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton: Si il y a au moins un participant à la discussion et qu'un nom de discussion est rentré, le bouton "Créer" est activé</t>
+  </si>
+  <si>
+    <t>Lorsqu'on clique sur le bouton : le formulaire se ferme et aucune action n'est effectuée</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : -Si le nom de la discussion est déjà pris, un message d'erreur apparait et le formulaire se ferme. -Si le nom de la discussion est disponible, la discussion est crée et le formulaire se ferme</t>
+  </si>
+  <si>
+    <t>Discussion :Rechercher un sujet de discussion</t>
+  </si>
+  <si>
+    <t>Rechercher</t>
+  </si>
+  <si>
+    <t>Liste proposée</t>
+  </si>
+  <si>
+    <t>Lorsque j'écris dans le champ, ce que j'écris y est affiché. Les catégories correspondant a la chaine de caractère rentrée sont affichées dans la liste "résultats"</t>
+  </si>
+  <si>
+    <t>Contient les catégories par défaut (10 premières)</t>
+  </si>
+  <si>
+    <t>Lorsqu'on clique sur le bouton : -Si une catégorie est sélectionnée, le formulaire recherche discussion apparait</t>
+  </si>
+  <si>
+    <t>Discussion :Rechercher un sujet de discussionEnregistrement : Recherche discussion</t>
+  </si>
+  <si>
+    <t>Rejoindre</t>
+  </si>
+  <si>
+    <t>Discussions correspondantes</t>
+  </si>
+  <si>
+    <t>Les discussions correspondant a la catégorie sélectionnée apparaissent (les discussions auxquelles l'utilisateur participe déjà n'apparaissent pas) dans la liste</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : -Si une discussion est sélectionnée, ajoute l'utilisateur dans la discussion</t>
+  </si>
+  <si>
+    <t>Discussion : Mes demandes de discussion</t>
+  </si>
+  <si>
+    <t>Groupes</t>
+  </si>
+  <si>
+    <t>La liste contient les demandes de discussions ayant 2 membres</t>
+  </si>
+  <si>
+    <t>La liste contient les demandes de discussions ayant plus de 2 membres</t>
+  </si>
+  <si>
+    <t>La liste contient les demandes de discussions envoyées</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : -Si une demande est sélectionnée, la demande est supprimée (chez l'emetteur et le recepteur) et l'utilisateur rejoinds la discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque je clique sur le bouton : -Si une demande est sélectionnée, la demande est supprimée (chez l'emetteur et le recepteur) </t>
+  </si>
+  <si>
+    <t>Liste</t>
+  </si>
+  <si>
+    <t>Contient toutes les conversations archivées</t>
+  </si>
+  <si>
+    <t>Réimporter</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur un bouton : -Si une archive est sélectionnée, l'archive est réimportée dans les discussions actives.</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : -Si une archive est sélectionnée, elle est supprimée</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : L'application se ferme</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : La fenetre pour confirmer la fermeture de l'application se ferme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,11 +625,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -545,11 +675,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,12 +696,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -576,33 +703,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,16 +984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="70.140625" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
@@ -903,1218 +1003,1363 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="C50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="D51" s="1"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
+      <c r="C59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="C61" s="5"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
+      <c r="C65" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
+      <c r="D67" s="1"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="18"/>
-      <c r="C69" s="5"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+      <c r="C73" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="C74" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="19"/>
+    </row>
+    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="17" t="s">
+      <c r="C81" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C82" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="D82" s="1"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
+      <c r="D83" s="1"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+      <c r="D84" s="3"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B85" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="14"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
+      <c r="C90" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="22"/>
+    </row>
+    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="20" t="s">
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="24"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+      <c r="D94" s="3"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="22"/>
+    </row>
+    <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="18" t="s">
+      <c r="C95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="18" t="s">
+      <c r="C96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="14"/>
+      <c r="C98" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="25"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="10" t="s">
+      <c r="B100" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="14"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="17"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
+    </row>
+    <row r="101" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="18"/>
-      <c r="C102" s="20"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="4"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="18"/>
-      <c r="C103" s="5"/>
+      <c r="B103" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="18"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="18"/>
-      <c r="C105" s="5"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="105" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="4"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="19"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="10" t="s">
+    <row r="108" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="14"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="17"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="18"/>
-      <c r="C110" s="20"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="25"/>
+    </row>
+    <row r="109" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="22"/>
+    </row>
+    <row r="110" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="4"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="19"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="18"/>
-      <c r="C111" s="5"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="2"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="4"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="19"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="18"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="18"/>
-      <c r="C113" s="5"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="4"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="19"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="10" t="s">
+      <c r="B116" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="14"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="25"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="17"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
+      <c r="B117" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="18"/>
-      <c r="C118" s="20"/>
+      <c r="B118" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="4"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="19"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="18"/>
-      <c r="C119" s="5"/>
+      <c r="B119" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="18"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="18"/>
-      <c r="C121" s="5"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="19"/>
+    </row>
+    <row r="120" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="22"/>
+    </row>
+    <row r="121" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="4"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="19"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="10" t="s">
+      <c r="B124" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F124" s="13"/>
-      <c r="G124" s="14"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="25"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="17"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="18"/>
-      <c r="C126" s="20"/>
+      <c r="B125" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="22"/>
+    </row>
+    <row r="126" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="18"/>
-      <c r="C127" s="5"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="4"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="19"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="18"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="9"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="18"/>
-      <c r="C129" s="5"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="131" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="10" t="s">
+      <c r="E129" s="17"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="19"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="10"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="22"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="10"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
+    </row>
+    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D135" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E135" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="14"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="17"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="18"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="18"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="4"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="25"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="18"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="18"/>
-      <c r="C137" s="5"/>
+      <c r="B136" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="22"/>
+    </row>
+    <row r="137" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="4"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="E134:G134"/>
+  <mergeCells count="103">
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="E131:G131"/>
     <mergeCell ref="E135:G135"/>
     <mergeCell ref="E136:G136"/>
     <mergeCell ref="E137:G137"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="E96:G96"/>
     <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="E133:G133"/>
     <mergeCell ref="E118:G118"/>
     <mergeCell ref="E119:G119"/>
     <mergeCell ref="E120:G120"/>
@@ -2127,85 +2372,7 @@
     <mergeCell ref="E113:G113"/>
     <mergeCell ref="E116:G116"/>
     <mergeCell ref="E117:G117"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="E105:G105"/>
     <mergeCell ref="E108:G108"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Documentation/Test.xlsx
+++ b/Documentation/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5EB5D-077B-4191-992E-A163CBC64E56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8B5D9-BC48-42D7-91D1-1DCB67B703AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="191">
   <si>
     <t>Résultat</t>
   </si>
@@ -75,18 +75,9 @@
     <t>Suivant</t>
   </si>
   <si>
-    <t>Lorsque je clique sur le bouton : -La case "Ce login est disponible" est cochée si le login est disponible, sinon message d'erreur. -Si les trois cases sont cochées, le bouton suivant est activé.</t>
-  </si>
-  <si>
     <t>Lorsque j'écris dans le champ: -les caractères tappés y sont affichés en "*". -Le bouton suivant est désactivé.                                                                                                 Un message d'erreur est affiché si : -Le nombre de caractère est inférieur à 8  -Le mot de passe ne contient pas de majuscule -Le mot de passe ne contient pas de chiffre</t>
   </si>
   <si>
-    <t>Lorsque j'écris dans le champ: -Les caractères tappés y sont affichés en "*"</t>
-  </si>
-  <si>
-    <t>Lorsque j'écris dans le champ: -Ce que j'écris y est affiché. - Le bouton suivant est désactivé -Si l'identifiant fait moins de 3 caractères un message d'erreur est affiché</t>
-  </si>
-  <si>
     <t>Lorsque je clique sur le bouton : -La deuxième fenêtre d'enregistrement apparait</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Lorsque je clique sur le bouton : -L'utilisateur est créé dans la base de données avec les informations rentrées par l'utilisateur dans les deux formulaires enregistrement -Les deux fenêtres d'enregistrement se ferment</t>
   </si>
   <si>
-    <t>Lorsque je clique sur le bouton le formulaire générale de l'application apparait sur l'onglet "Discussion"</t>
-  </si>
-  <si>
     <t>Lorsque je clique sur le bouton le formulaire enregistrement apparait</t>
   </si>
   <si>
@@ -207,9 +195,6 @@
     <t>Le formulaire se ferme, aucune action n'a été effectuée</t>
   </si>
   <si>
-    <t>Lorsque je clique sur le bouton : -Si le pseudonyme rentré ne correspond à aucun contact, le formulaire se ferme avec message d'erreur. -Si le pseudonyme rentré correspond à un contact, le formulaire se ferme avec message confirmant l'ajout. Une demande de contact est envoyée au contact</t>
-  </si>
-  <si>
     <t>Contats : Demandes</t>
   </si>
   <si>
@@ -336,9 +321,6 @@
     <t>Si la case est cochée, la discussion sera publique (accessible librement pour tous le monde)</t>
   </si>
   <si>
-    <t>Lorsque je clique sur le bouton: Si il y a au moins un participant à la discussion et qu'un nom de discussion est rentré, le bouton "Créer" est activé</t>
-  </si>
-  <si>
     <t>Lorsqu'on clique sur le bouton : le formulaire se ferme et aucune action n'est effectuée</t>
   </si>
   <si>
@@ -424,6 +406,198 @@
   </si>
   <si>
     <t>Lorsque je clique sur le bouton : La fenetre pour confirmer la fermeture de l'application se ferme</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : -Si les identifiants sont corrects, le formulaire générale de l'application apparait sur l'onglet "Discussion" -Si les identifiants sont faux, un message d'erreur apparait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si les les identifiants sont faux un message d'erreur apparait. Si les identifiants sont juste le formulaire général s'ouvre</t>
+  </si>
+  <si>
+    <t>Le forumlaire enregistrement apparait</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque j'écris dans le champ: -Ce que j'écris y est affiché. - Le bouton suivant est désactivé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce que j'y écris est affiché. Le bouton suivant est désacitvé lorsque j'écris dans le champ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque je clique sur le bouton : -La case "Ce login est disponible" est cochée si le login est disponible, sinon message d'erreur. -Si l'identifiant fait moins de 3 caractères un message d'erreur est affiché -Si l'identifiant est composé d'autre chose que des chiffres ou des lettres un message d'erreur est affiché -Si les trois cases sont cochées, le bouton suivant est activé. </t>
+  </si>
+  <si>
+    <t>Si le login est disponbile la case correspondante est cochée. Si le login fait moins de 3 caractères le message d'erreur apparait. Si le login contient autre chose que des chiffres et des lettres le message d'erreur apparait. Si les 3 cases sont cochées le bouton suivant est activé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque j'écris dans le champ: - Le bouton suivant est désactivé -Les caractères tappés y sont affichés en "*". Si les deux mots de passes sont identiques la case "Les mots de passe sont identiques" est cochée  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les caractères sont affichés en"*" . Les trois messages d'erreur sont présents pour leur situation spécifique. Le bouton suivant est désacitvé lorsque j'écris dans le champ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les caractères sont affichés en"*" . La case est cochée si la condition est remplie. Le bouton suivant est désacitvé lorsque j'écris dans le champ. </t>
+  </si>
+  <si>
+    <t>La deuxieme fenetre d'enregistrement apparait</t>
+  </si>
+  <si>
+    <t>Ce que j'y écris y est affiché</t>
+  </si>
+  <si>
+    <t>L'utilisateur est créé avec les informations rentrées par l'utilisateur. Les deux formulaires se ferment</t>
+  </si>
+  <si>
+    <t>Si le nom, prenom ou la description sont composés de caractères spéciaux autres que des chiffres ou des lettres aucune erreur va se produire directement mais les données seront enregistrées fausses et des bugs peuvent survenir plus tard dans l'utilisation de l'application car j'ai utilisé des caractères spéciaux pour séparer les différents élément à envoyer du client au serveur</t>
+  </si>
+  <si>
+    <t>Ok, mis a part caractères spéciaux</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Le pannel apparait</t>
+  </si>
+  <si>
+    <t>Le message apparait</t>
+  </si>
+  <si>
+    <t>Le champ est rempli correctement, on peut modifier sa valeur</t>
+  </si>
+  <si>
+    <t>Le champ est rempli correctement, on ne peut pas modifier sa valeur</t>
+  </si>
+  <si>
+    <t>Le profil a été mis a jour correctement</t>
+  </si>
+  <si>
+    <t>Tous les contacts sont bien présents</t>
+  </si>
+  <si>
+    <t>Le formulaire apparait</t>
+  </si>
+  <si>
+    <t>ce que j'y ecrs y est affiché</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton : -Si le pseudonyme rentré ne correspond à aucun contact, le formulaire se ferme avec message d'erreur. -Si le pseudonyme rentré correspond à un contact, le formulaire se ferme avec message confirmant l'ajout. Une demande de contact est envoyée au contact -Si le pseudonyme rentré correspond a un contact deja existant un message d'erreur apparait et le formulaire se ferme</t>
+  </si>
+  <si>
+    <t>Les trois situations se sont présentés comme décrites à coté</t>
+  </si>
+  <si>
+    <t>Le formulaire se ferme</t>
+  </si>
+  <si>
+    <t>Si pas de contact sélectionné rien ne se passe. Si un contact est sélectionné le formulaire apparait</t>
+  </si>
+  <si>
+    <t>Si pas de contact sélectionné rien ne se passe. Si un contact est sélectionné le message apparait et le contact est supprimé</t>
+  </si>
+  <si>
+    <t>La liste contient les demandes envoyées : il faut cliquer sur le bouton "Demandes" pour que la liste s'actualise</t>
+  </si>
+  <si>
+    <t>OK, actualisation non automatique</t>
+  </si>
+  <si>
+    <t>La liste contient les demandes recues : il faut cliquer sur le bouton "Demandes" pour que la liste s'actualise</t>
+  </si>
+  <si>
+    <t>Si aucune demande sélectionnée, le message indiquant que la demande a été supprimée apparait quand meme. Si une demande est sélectionnée, le message apparait et la demande est retirée</t>
+  </si>
+  <si>
+    <t>PAS OK, mais pas impactant sur le fonctionnement de l'application</t>
+  </si>
+  <si>
+    <t>Si aucune demande est sélectionnée, l'application plante. Si une demande est sélectionné, le contact est ajouté</t>
+  </si>
+  <si>
+    <t>PAS OK, l'application arrête de fonctionner</t>
+  </si>
+  <si>
+    <t>PAS OK, la fonctionnalité n'est pas fonctionnelle</t>
+  </si>
+  <si>
+    <t>Erreur majeure impactant l'utilisation de l'application</t>
+  </si>
+  <si>
+    <t>Erreur "mineure" n'impactant pas l'utilisation de l'application si l'utilisateur est averti</t>
+  </si>
+  <si>
+    <t>Bon fonctionnement</t>
+  </si>
+  <si>
+    <t>Facilement corrigible</t>
+  </si>
+  <si>
+    <t>Les champs sont remplis correctement et non modifiable</t>
+  </si>
+  <si>
+    <t>le champ est rempli correctement, et il est modifiable</t>
+  </si>
+  <si>
+    <t>Si l'annotation est composée de caractères spéciaux autres que des chiffres ou des lettres aucune erreur va se produire directement mais les données seront enregistrées fausses et des bugs peuvent survenir plus tard dans l'utilisation de l'application car j'ai utilisé des caractères spéciaux pour séparer les différents élément à envoyer du client au serveur</t>
+  </si>
+  <si>
+    <t>ok, sauf caractères spéciaux</t>
+  </si>
+  <si>
+    <t>le formulaire se ferme</t>
+  </si>
+  <si>
+    <t>Le profil est mis a jour correctement</t>
+  </si>
+  <si>
+    <t>le formulaire apparait</t>
+  </si>
+  <si>
+    <t>le pannel apparait</t>
+  </si>
+  <si>
+    <t>Si aucune discusison n'est sélectionnée l'application bug. Si une discussion est sélectionnée le formulaire correspondant apparait</t>
+  </si>
+  <si>
+    <t>Si aucune discusison n'est sélectionnée rien ne se passe. Si une discussion est sélectionnée la discusison est supprimée</t>
+  </si>
+  <si>
+    <t>Si aucune discusison n'est sélectionnée rien ne se passe.  Si une discussion est sélectionnée, la discussion est déplacée dans les archives</t>
+  </si>
+  <si>
+    <t>Tous les contacts sont dans la liste</t>
+  </si>
+  <si>
+    <t>Le contact est ajouté dans la liste des participants</t>
+  </si>
+  <si>
+    <t>Le participant est retiré de la liste des participants</t>
+  </si>
+  <si>
+    <t>Si le nom de la discusion ou la catégorie sont composés de caractères spéciaux autres que des chiffres ou des lettres aucune erreur va se produire directement mais les données seront enregistrées fausses et des bugs peuvent survenir plus tard dans l'utilisation de l'application car j'ai utilisé des caractères spéciaux pour séparer les différents élément à envoyer du client au serveur</t>
+  </si>
+  <si>
+    <t>Lorsque je clique sur le bouton: Si il y a au moins un participant à la discussion et qu'un nom de discussion  et une catégorie sont rentrés, le bouton "Créer" est activé</t>
+  </si>
+  <si>
+    <t>Ce que j'écris y est affiché</t>
+  </si>
+  <si>
+    <t>La catégorie par défaut est bien "Par defaut". Ce que j'y écris est affiché</t>
+  </si>
+  <si>
+    <t>La discussion est publique lorsque la case est cochée</t>
+  </si>
+  <si>
+    <t>Le bouton créer est activé ses les conditions sont remplies correctement</t>
+  </si>
+  <si>
+    <t>Si le nom est déjà pris : message erreur et le formulaire se ferme. Sinon la discussion est crée</t>
   </si>
 </sst>
 </file>
@@ -447,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +631,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -666,43 +864,133 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G137"/>
+  <dimension ref="B1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="B95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1289,17 @@
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1012,11 +1311,11 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1028,11 +1327,13 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1042,9 +1343,11 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="E5" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -1054,70 +1357,80 @@
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+        <v>128</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -1125,76 +1438,103 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -1202,72 +1542,88 @@
       <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>2</v>
@@ -1275,76 +1631,96 @@
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>2</v>
@@ -1352,76 +1728,96 @@
       <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+    </row>
+    <row r="43" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>2</v>
@@ -1429,71 +1825,91 @@
       <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
+      <c r="D50" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="D52" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
+      <c r="D53" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
@@ -1501,7 +1917,7 @@
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>2</v>
@@ -1509,68 +1925,80 @@
       <c r="D56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D57" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+    </row>
+    <row r="58" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
+        <v>153</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="36"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>2</v>
@@ -1578,72 +2006,95 @@
       <c r="D64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
+    </row>
+    <row r="66" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+      <c r="D66" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+    </row>
+    <row r="67" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
+      <c r="D67" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="41"/>
+      <c r="G67" s="42"/>
+    </row>
+    <row r="68" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
+      <c r="H68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="26"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="71" spans="2:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>2</v>
@@ -1651,72 +2102,88 @@
       <c r="D72" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F72" s="23"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="33"/>
+    </row>
+    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42"/>
+    </row>
+    <row r="75" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="19"/>
-    </row>
-    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="32"/>
+      <c r="G76" s="33"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="26"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>2</v>
@@ -1724,88 +2191,119 @@
       <c r="D80" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="32"/>
+      <c r="G81" s="33"/>
+    </row>
+    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="35"/>
+      <c r="G82" s="36"/>
+    </row>
+    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="35"/>
+      <c r="G83" s="36"/>
+    </row>
+    <row r="84" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="36"/>
+    </row>
+    <row r="85" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="35"/>
+      <c r="G85" s="36"/>
+    </row>
+    <row r="86" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="22"/>
-    </row>
-    <row r="82" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="D86" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22"/>
-    </row>
-    <row r="85" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>2</v>
@@ -1813,124 +2311,160 @@
       <c r="D89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="22"/>
-    </row>
-    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="32"/>
+      <c r="G90" s="33"/>
+    </row>
+    <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+    </row>
+    <row r="92" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" s="55"/>
+      <c r="G92" s="56"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D93" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F93" s="41"/>
+      <c r="G93" s="42"/>
+    </row>
+    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="22"/>
-    </row>
-    <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F94" s="38"/>
+      <c r="G94" s="39"/>
+    </row>
+    <row r="95" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="35"/>
+      <c r="G95" s="36"/>
+    </row>
+    <row r="96" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="19"/>
+        <v>185</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="35"/>
+      <c r="G96" s="36"/>
     </row>
     <row r="97" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F97" s="35"/>
+      <c r="G97" s="36"/>
     </row>
     <row r="98" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="25"/>
+        <v>99</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="35"/>
+      <c r="G98" s="36"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>2</v>
@@ -1938,72 +2472,72 @@
       <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="24"/>
-      <c r="G100" s="25"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="24"/>
     </row>
     <row r="101" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="22"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" s="12"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="21"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="21"/>
     </row>
     <row r="104" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="22"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="26" t="s">
-        <v>112</v>
+      <c r="B108" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>2</v>
@@ -2011,64 +2545,64 @@
       <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="25"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="24"/>
     </row>
     <row r="109" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="18"/>
     </row>
     <row r="110" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="21"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
       <c r="C112" s="8"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="18"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
       <c r="C113" s="2"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>2</v>
@@ -2076,76 +2610,76 @@
       <c r="D116" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F116" s="24"/>
-      <c r="G116" s="25"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="24"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="22"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="18"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D118" s="1"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="21"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D119" s="1"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="21"/>
     </row>
     <row r="120" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="22"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="18"/>
     </row>
     <row r="121" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="21"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>2</v>
@@ -2153,84 +2687,84 @@
       <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E124" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F124" s="24"/>
-      <c r="G124" s="25"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="24"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="22"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="18"/>
     </row>
     <row r="126" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="21"/>
     </row>
     <row r="127" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="21"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="10"/>
       <c r="C128" s="8"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="22"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="18"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="10"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="21"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
       <c r="C130" s="8"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="22"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="18"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="10"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="21"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>2</v>
@@ -2238,38 +2772,117 @@
       <c r="D135" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="23" t="s">
+      <c r="E135" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F135" s="24"/>
-      <c r="G135" s="25"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="24"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D136" s="3"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="22"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="18"/>
     </row>
     <row r="137" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E128:G128"/>
     <mergeCell ref="E129:G129"/>
     <mergeCell ref="E130:G130"/>
@@ -2283,24 +2896,9 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E45:G45"/>
@@ -2309,72 +2907,8 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E120:G120"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="E108:G108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Test.xlsx
+++ b/Documentation/Test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chat-Application\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8B5D9-BC48-42D7-91D1-1DCB67B703AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="3270"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -603,7 +602,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,6 +869,39 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -897,14 +929,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -913,84 +990,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1272,11 +1271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96:G96"/>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,13 +1289,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="20" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1311,11 +1310,11 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1327,11 +1326,11 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -1343,11 +1342,11 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -1357,11 +1356,11 @@
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -1370,14 +1369,14 @@
       <c r="C7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -1389,43 +1388,43 @@
       <c r="D8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="E8" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1438,11 +1437,11 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -1451,14 +1450,14 @@
       <c r="C16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1467,14 +1466,14 @@
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -1483,30 +1482,30 @@
       <c r="C18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E18" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
@@ -1515,20 +1514,20 @@
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:7" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="18" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1542,11 +1541,11 @@
       <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -1555,14 +1554,14 @@
       <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
@@ -1571,14 +1570,14 @@
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
@@ -1587,38 +1586,38 @@
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1631,11 +1630,11 @@
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
@@ -1647,11 +1646,11 @@
       <c r="D34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
@@ -1663,11 +1662,11 @@
       <c r="D35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="E35" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -1679,11 +1678,11 @@
       <c r="D36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="E36" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -1695,11 +1694,11 @@
       <c r="D37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="E37" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
@@ -1711,11 +1710,11 @@
       <c r="D38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="E38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1728,11 +1727,11 @@
       <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
@@ -1741,14 +1740,14 @@
       <c r="C42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
+      <c r="E42" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
     </row>
     <row r="43" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
@@ -1757,14 +1756,14 @@
       <c r="C43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="E43" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
@@ -1773,14 +1772,14 @@
       <c r="C44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
+      <c r="E44" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
@@ -1789,14 +1788,14 @@
       <c r="C45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
+      <c r="E45" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
@@ -1805,14 +1804,14 @@
       <c r="C46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
+      <c r="E46" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1825,11 +1824,11 @@
       <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
@@ -1838,14 +1837,14 @@
       <c r="C49" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
+      <c r="E49" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
@@ -1854,14 +1853,14 @@
       <c r="C50" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
+      <c r="E50" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
     </row>
     <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
@@ -1870,14 +1869,14 @@
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="E51" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
     </row>
     <row r="52" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
@@ -1886,14 +1885,14 @@
       <c r="C52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
+      <c r="E52" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
     </row>
     <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
@@ -1902,14 +1901,14 @@
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="E53" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
@@ -1925,11 +1924,11 @@
       <c r="D56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
@@ -1938,14 +1937,14 @@
       <c r="C57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="32"/>
-      <c r="G57" s="33"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
@@ -1954,14 +1953,14 @@
       <c r="C58" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
@@ -1970,30 +1969,30 @@
       <c r="C59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="36"/>
+      <c r="E59" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2006,11 +2005,11 @@
       <c r="D64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35"/>
     </row>
     <row r="65" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
@@ -2019,14 +2018,14 @@
       <c r="C65" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="44"/>
     </row>
     <row r="66" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
@@ -2035,14 +2034,14 @@
       <c r="C66" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44"/>
     </row>
     <row r="67" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
@@ -2051,14 +2050,14 @@
       <c r="C67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="42"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="41"/>
     </row>
     <row r="68" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
@@ -2067,14 +2066,14 @@
       <c r="C68" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
       <c r="H68" t="s">
         <v>169</v>
       </c>
@@ -2082,13 +2081,13 @@
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
     </row>
     <row r="71" spans="2:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2102,11 +2101,11 @@
       <c r="D72" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="24"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="35"/>
     </row>
     <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
@@ -2115,14 +2114,14 @@
       <c r="C73" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="33"/>
+      <c r="E73" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="46"/>
+      <c r="G73" s="47"/>
     </row>
     <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
@@ -2131,14 +2130,14 @@
       <c r="C74" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="41"/>
-      <c r="G74" s="42"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="41"/>
     </row>
     <row r="75" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
@@ -2147,14 +2146,14 @@
       <c r="C75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="38"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
@@ -2163,22 +2162,22 @@
       <c r="C76" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F76" s="32"/>
-      <c r="G76" s="33"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="47"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="32"/>
     </row>
     <row r="79" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2191,11 +2190,11 @@
       <c r="D80" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="35"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
@@ -2204,14 +2203,14 @@
       <c r="C81" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E81" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F81" s="32"/>
-      <c r="G81" s="33"/>
+      <c r="E81" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="46"/>
+      <c r="G81" s="47"/>
     </row>
     <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
@@ -2220,14 +2219,14 @@
       <c r="C82" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E82" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36"/>
+      <c r="E82" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="37"/>
+      <c r="G82" s="38"/>
     </row>
     <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
@@ -2236,14 +2235,14 @@
       <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="36"/>
+      <c r="E83" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="37"/>
+      <c r="G83" s="38"/>
     </row>
     <row r="84" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
@@ -2252,14 +2251,14 @@
       <c r="C84" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36"/>
+      <c r="E84" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="37"/>
+      <c r="G84" s="38"/>
     </row>
     <row r="85" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
@@ -2268,14 +2267,14 @@
       <c r="C85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E85" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="36"/>
+      <c r="E85" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="37"/>
+      <c r="G85" s="38"/>
     </row>
     <row r="86" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
@@ -2284,20 +2283,20 @@
       <c r="C86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="50"/>
       <c r="H86" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="46" t="s">
+      <c r="D88" s="19" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2311,11 +2310,11 @@
       <c r="D89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="35"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
@@ -2324,14 +2323,14 @@
       <c r="C90" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E90" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="33"/>
+      <c r="E90" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="46"/>
+      <c r="G90" s="47"/>
     </row>
     <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
@@ -2340,14 +2339,14 @@
       <c r="C91" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
+      <c r="E91" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="37"/>
+      <c r="G91" s="38"/>
     </row>
     <row r="92" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
@@ -2356,14 +2355,14 @@
       <c r="C92" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" s="55"/>
-      <c r="G92" s="56"/>
+      <c r="E92" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
@@ -2372,14 +2371,14 @@
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="F93" s="41"/>
-      <c r="G93" s="42"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="41"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
@@ -2388,14 +2387,14 @@
       <c r="C94" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E94" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="F94" s="38"/>
-      <c r="G94" s="39"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="44"/>
     </row>
     <row r="95" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
@@ -2404,14 +2403,14 @@
       <c r="C95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36"/>
+      <c r="E95" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="37"/>
+      <c r="G95" s="38"/>
     </row>
     <row r="96" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
@@ -2420,14 +2419,14 @@
       <c r="C96" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E96" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="36"/>
+      <c r="E96" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="37"/>
+      <c r="G96" s="38"/>
     </row>
     <row r="97" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
@@ -2436,14 +2435,14 @@
       <c r="C97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E97" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F97" s="35"/>
-      <c r="G97" s="36"/>
+      <c r="E97" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F97" s="37"/>
+      <c r="G97" s="38"/>
     </row>
     <row r="98" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
@@ -2455,11 +2454,11 @@
       <c r="D98" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E98" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F98" s="35"/>
-      <c r="G98" s="36"/>
+      <c r="E98" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="37"/>
+      <c r="G98" s="38"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2472,11 +2471,11 @@
       <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="24"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="35"/>
     </row>
     <row r="101" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
@@ -2486,17 +2485,17 @@
         <v>103</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="18"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" s="12"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="32"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
@@ -2506,9 +2505,9 @@
         <v>104</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="32"/>
     </row>
     <row r="104" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
@@ -2518,9 +2517,9 @@
         <v>98</v>
       </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="18"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="29"/>
     </row>
     <row r="105" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
@@ -2530,9 +2529,9 @@
         <v>105</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="21"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="32"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2545,11 +2544,11 @@
       <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="23"/>
-      <c r="G108" s="24"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="35"/>
     </row>
     <row r="109" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
@@ -2559,9 +2558,9 @@
         <v>110</v>
       </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="18"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
@@ -2571,33 +2570,33 @@
         <v>109</v>
       </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="21"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="32"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="21"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="32"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
       <c r="C112" s="8"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="18"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="29"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
       <c r="C113" s="2"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2610,11 +2609,11 @@
       <c r="D116" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F116" s="23"/>
-      <c r="G116" s="24"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="35"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
@@ -2624,9 +2623,9 @@
         <v>113</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="18"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
@@ -2636,9 +2635,9 @@
         <v>114</v>
       </c>
       <c r="D118" s="1"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="21"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="32"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
@@ -2648,9 +2647,9 @@
         <v>115</v>
       </c>
       <c r="D119" s="1"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="21"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="32"/>
     </row>
     <row r="120" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
@@ -2660,9 +2659,9 @@
         <v>116</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="18"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="29"/>
     </row>
     <row r="121" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
@@ -2672,9 +2671,9 @@
         <v>117</v>
       </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="21"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="32"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2687,11 +2686,11 @@
       <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F124" s="23"/>
-      <c r="G124" s="24"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="35"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="9" t="s">
@@ -2701,9 +2700,9 @@
         <v>119</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="18"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="29"/>
     </row>
     <row r="126" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
@@ -2713,9 +2712,9 @@
         <v>121</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="21"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="32"/>
     </row>
     <row r="127" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
@@ -2725,41 +2724,41 @@
         <v>122</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="21"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="32"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="10"/>
       <c r="C128" s="8"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="18"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="29"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="10"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="21"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="32"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
       <c r="C130" s="8"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="18"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="29"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="10"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="21"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="32"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2772,11 +2771,11 @@
       <c r="D135" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="22" t="s">
+      <c r="E135" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F135" s="23"/>
-      <c r="G135" s="24"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="35"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
@@ -2786,9 +2785,9 @@
         <v>124</v>
       </c>
       <c r="D136" s="3"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="18"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="29"/>
     </row>
     <row r="137" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
@@ -2798,91 +2797,12 @@
         <v>126</v>
       </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="21"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E120:G120"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E128:G128"/>
     <mergeCell ref="E129:G129"/>
     <mergeCell ref="E130:G130"/>
@@ -2907,6 +2827,85 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="E108:G108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
